--- a/projeto.xlsx
+++ b/projeto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\ProjetoCisterna-py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08069DF2-DD55-40CF-8EE7-420A9A9FD26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFDBBCE4-9DAB-4597-8C92-2B735F03BA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="13550" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="projeto" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -533,10 +533,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -893,11 +896,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,31 +941,31 @@
       <c r="A2" s="1">
         <v>43101</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>180</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>80</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>150</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>250</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>85</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>165</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>175</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>77</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>20</v>
       </c>
     </row>
@@ -970,31 +973,31 @@
       <c r="A3" s="1">
         <v>43132</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>150</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>60</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>215</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>520</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>140</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>115</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>330</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>220</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="3">
         <v>78</v>
       </c>
     </row>
@@ -1002,31 +1005,31 @@
       <c r="A4" s="1">
         <v>43160</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>160</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>190</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>245</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <v>197</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>116</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>298</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <v>280</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>185</v>
       </c>
     </row>
@@ -1034,31 +1037,31 @@
       <c r="A5" s="1">
         <v>43191</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>400</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>240</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>190</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>488</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>370</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>480</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>30</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>288</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>150</v>
       </c>
     </row>
@@ -1066,31 +1069,31 @@
       <c r="A6" s="1">
         <v>43221</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>230</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>220</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>220</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>389</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>245</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>223</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>65</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>180</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="3">
         <v>125</v>
       </c>
     </row>
@@ -1098,31 +1101,31 @@
       <c r="A7" s="1">
         <v>43252</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>285</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
         <v>170</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>50</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>110</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>140</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>15</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>252</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>215</v>
       </c>
     </row>
@@ -1130,31 +1133,31 @@
       <c r="A8" s="1">
         <v>43282</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>290</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="3">
         <v>60</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>98</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>70</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>280</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>110</v>
       </c>
     </row>
@@ -1162,31 +1165,31 @@
       <c r="A9" s="1">
         <v>43313</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>70</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>63</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>22</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>75</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>105</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>3</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>45</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>32</v>
       </c>
     </row>
@@ -1194,31 +1197,31 @@
       <c r="A10" s="1">
         <v>43344</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>70</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
         <v>90</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>25</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>60</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>14</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>60</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>20</v>
       </c>
     </row>
@@ -1226,31 +1229,31 @@
       <c r="A11" s="1">
         <v>43374</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>5</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
         <v>65</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>8</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>5</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>25</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>0</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>35</v>
       </c>
     </row>
@@ -1258,31 +1261,31 @@
       <c r="A12" s="1">
         <v>43405</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>70</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
         <v>68</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>23</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>30</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <v>7</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <v>10</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>30</v>
       </c>
     </row>
@@ -1290,35 +1293,36 @@
       <c r="A13" s="1">
         <v>43435</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>80</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
         <v>149</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="3">
         <v>120</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <v>205</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>52</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>70</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <v>370</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <v>65</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>